--- a/기획서/WA!/System/충돌 체크.xlsx
+++ b/기획서/WA!/System/충돌 체크.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TS\Desktop\Documents\Develop\WA!\System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819603E4-5C87-4915-AA96-70CDFAE3CC45}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F805BC-CA50-4306-8181-1B338CBEFCB0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{53D45DF4-3AD1-456B-B2CA-EE3D4795B8C9}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{53D45DF4-3AD1-456B-B2CA-EE3D4795B8C9}"/>
   </bookViews>
   <sheets>
     <sheet name="충돌 체크" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
   <si>
     <t>World Static</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -92,15 +92,31 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>puzzle1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>collision1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>collision2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_MB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_Shot</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pawn</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_SP</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -293,6 +309,9 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -304,9 +323,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -316,6 +332,302 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -357,302 +669,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="thin">
           <color indexed="64"/>
@@ -727,16 +743,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8EE94285-D569-4CF3-96C2-DCC729DF0C94}" name="표2" displayName="표2" ref="A2:J16" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10" headerRowCellStyle="보통">
   <autoFilter ref="A2:J16" xr:uid="{50FA1347-986E-4197-B18D-A2A6AF6EBACA}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{E1D5E2EC-680E-4B11-8036-7C5EB3C39494}" name="액터 네임" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{97B31DA6-1AA4-4602-8941-AF01753A8244}" name="컴포넌트" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{C944B737-1370-4309-9E19-0FF7E1BA39F3}" name="오브젝트 타입" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{84297DE8-E1B6-4027-9B7F-CCFF110DDB60}" name="World Static" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{7FA879CC-46D8-455C-A1C5-D726E79B2A32}" name="WorldDynamic" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{01876651-B161-4BEB-9B43-08F13556198F}" name="Pawn" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{F8686D55-06CF-4F97-96C8-E3C74DB35EC8}" name="PhysicsBody" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{1C720CC5-9B8C-4FDC-8B6C-77B8FF5D34BB}" name="Vehicle" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{4F050319-4D5B-4414-BFAE-F1B9B1CC5662}" name="Destructible" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{1AE41ED5-ED62-4E75-B249-306C93FDD65E}" name="character" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{E1D5E2EC-680E-4B11-8036-7C5EB3C39494}" name="액터 네임" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{97B31DA6-1AA4-4602-8941-AF01753A8244}" name="컴포넌트" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{C944B737-1370-4309-9E19-0FF7E1BA39F3}" name="오브젝트 타입" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{84297DE8-E1B6-4027-9B7F-CCFF110DDB60}" name="World Static" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{7FA879CC-46D8-455C-A1C5-D726E79B2A32}" name="WorldDynamic" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{01876651-B161-4BEB-9B43-08F13556198F}" name="Pawn" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{F8686D55-06CF-4F97-96C8-E3C74DB35EC8}" name="PhysicsBody" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{1C720CC5-9B8C-4FDC-8B6C-77B8FF5D34BB}" name="Vehicle" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{4F050319-4D5B-4414-BFAE-F1B9B1CC5662}" name="Destructible" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{1AE41ED5-ED62-4E75-B249-306C93FDD65E}" name="?" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1042,7 +1058,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1060,20 +1076,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="7" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -1104,7 +1120,7 @@
         <v>5</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1112,9 +1128,11 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
@@ -1133,18 +1151,18 @@
       <c r="I3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
@@ -1163,63 +1181,83 @@
       <c r="I4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
